--- a/output/InJOIN.xlsx
+++ b/output/InJOIN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,792 +436,462 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Col/Measure</t>
+          <t>Table[Column]</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Agents</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Торгові представники</t>
+          <t>'Agents'[Торгові представники]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BrandsBI</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Посилання</t>
+          <t>'BrandsBI'[Посилання]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BrandsBI</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>назва бренда</t>
+          <t>'BrandsBI'[назва бренда]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clients</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ClientGroup1</t>
+          <t>'Clients'[ClientGroup1]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Clients</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Клієнти</t>
+          <t>'Clients'[Клієнти]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Comands</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Команди</t>
+          <t>'Comands'[Команди]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Credits</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Кредиторка загальна</t>
+          <t>'Credits'[Кредиторка загальна]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Debts</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Action</t>
+          <t>'Debts'[Action]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Debts</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DateDocMonth</t>
+          <t>'Debts'[DateDocMonth]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Debts</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DateDocYear</t>
+          <t>'Debts'[DateDocYear]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Debts</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Дебіторка</t>
+          <t>'Debts'[Дебіторка загальна]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Debts</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Дебіторка загальна</t>
+          <t>'Debts'[Дебіторка]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DeliveryAddresses</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Адреси доставки</t>
+          <t>'DeliveryAddresses'[Адреси доставки]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DeliveryAddresses</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Вид ТТ</t>
+          <t>'DeliveryAddresses'[Вид ТТ]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DeliveryAddresses</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Канал збуту</t>
+          <t>'DeliveryAddresses'[Канал збуту]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DimDates</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Date</t>
+          <t>'DimDates'[DateNormal]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DimDates</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DateNormal</t>
+          <t>'DimDates'[Date]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DimDates</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DayName</t>
+          <t>'DimDates'[DayName]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DimDates</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>WorkDays</t>
+          <t>'DimDates'[WorkDays]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DimDates</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>YearsForSelection</t>
+          <t>'DimDates'[YearsForSelection]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DimDates</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>К-сть робочих днів у періоді пройшло</t>
+          <t>'DimDates'[К-сть робочих днів у періоді пройшло]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DimDates</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Місяць</t>
+          <t>'DimDates'[Місяць]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DimDates</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Період</t>
+          <t>'DimDates'[Період]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DimDates</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Рік</t>
+          <t>'DimDates'[Рік]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>History</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Контракт</t>
+          <t>'History'[Контракт]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Organizations</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Організації</t>
+          <t>'Organizations'[Організації]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ProductGroup</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Група товару</t>
+          <t>'ProductGroup'[Група товару]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Category1</t>
+          <t>'Products'[Category1]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Category2</t>
+          <t>'Products'[Category2]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Category3</t>
+          <t>'Products'[Category3]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Артикул</t>
+          <t>'Products'[Артикул]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Товари</t>
+          <t>'Products'[Товари]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Projects</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ContractNon</t>
+          <t>'Projects'[ContractNon]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Projects</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Бренди</t>
+          <t>'Projects'[Бренди]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Projects</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Контракт</t>
+          <t>'Projects'[Контракт]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AgentCode</t>
+          <t>'Sales'[AgentCode]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Ф1/Ф2</t>
+          <t>'Sales'[Ф1/Ф2]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>% виконання плану продажу</t>
+          <t>'SalesDet'[% виконання плану продажу на основі прогнозу місяця]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>% виконання плану продажу на основі прогнозу місяця</t>
+          <t>'SalesDet'[% виконання плану продажу]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>% знижки</t>
+          <t>'SalesDet'[% знижки]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>% маржі</t>
+          <t>'SalesDet'[% маржі]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>% націнки</t>
+          <t>'SalesDet'[% націнки]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Margin</t>
+          <t>'SalesDet'[Margin]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Period</t>
+          <t>'SalesDet'[Period]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>count</t>
+          <t>'SalesDet'[count]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Покриття АТТ</t>
+          <t>'SalesDet'[Покриття АТТ]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SalesDet</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Прогноз продажу в поточному місяці</t>
+          <t>'SalesDet'[Прогноз продажу в поточному місяці]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Stocks</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Count</t>
+          <t>'Stocks'[Count]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Stocks</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DateNormal</t>
+          <t>'Stocks'[DateNormal]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Stocks</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Залишки на кін періоду</t>
+          <t>'Stocks'[Залишки на кін періоду]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Stocks</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Залишки на поч періоду</t>
+          <t>'Stocks'[Залишки на поч періоду]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Stocks</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>К-ть залишків</t>
+          <t>'Stocks'[К-ть залишків]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Stocks</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Кількість SKU</t>
+          <t>'Stocks'[Кількість SKU]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Stocks</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Середньоденна сума залишків</t>
+          <t>'Stocks'[Середньоденна сума залишків]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Teritories</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Підрозділи</t>
+          <t>'Teritories'[Підрозділи]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Teritories</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Територія</t>
+          <t>'Teritories'[Територія]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Warehouses</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Склади</t>
+          <t>'Warehouses'[Склади]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Warehouses</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Типи Складів (для закупки+залишки)</t>
+          <t>'Warehouses'[Типи Складів (для закупки+залишки)]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Zakupki</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ТипПриходу</t>
+          <t>'Zakupki'[ТипПриходу]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ZakupkiDet</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>% виконання плану закупки</t>
+          <t>'ZakupkiDet'[% виконання плану закупки]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ZakupkiDet</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Середньоденна закупка</t>
+          <t>'ZakupkiDet'[Середньоденна закупка]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>_ABC_Classes</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ABC</t>
+          <t>'_ABC_Classes'[ABC]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>_ABC_Classes</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>_ABC_SalesAmount</t>
+          <t>'_ABC_Classes'[_ABC_SalesAmount]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>_ABC_Classes</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>_ABC_StocksAmount</t>
+          <t>'_ABC_Classes'[_ABC_StocksAmount]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>_ABC_Classes</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>_ABC_StocksRotation</t>
+          <t>'_ABC_Classes'[_ABC_StocksRotation]</t>
         </is>
       </c>
     </row>

--- a/output/InJOIN.xlsx
+++ b/output/InJOIN.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Table[Column]</t>
+          <t>'Table'[Column]</t>
         </is>
       </c>
     </row>
